--- a/Income/CARR_inc.xlsx
+++ b/Income/CARR_inc.xlsx
@@ -630,16 +630,16 @@
         <v>0.2938</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.2944</v>
+        <v>0.2938</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.2908</v>
+        <v>0.2903</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.293</v>
+        <v>0.2925</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.2917</v>
+        <v>0.2912</v>
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
@@ -1046,16 +1046,16 @@
         <v>0.1309</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.1433</v>
+        <v>0.1388</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.1367</v>
+        <v>0.1322</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.152</v>
+        <v>0.1477</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.1561</v>
+        <v>0.1519</v>
       </c>
       <c r="H28" s="0" t="inlineStr">
         <is>
